--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -677,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -15,9 +15,11 @@
     <sheet name="uiReward" sheetId="1" r:id="rId1"/>
     <sheet name="uiReward.i" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="rewardType.j" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="uiType.j" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>
+    <definedName name="uiTypek">uiType.j!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加载界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,18 +136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示注册游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accountRegister</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示创建角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roleCreate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,23 +167,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示游戏谢幕界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示服务器列表界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serverList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载进入游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountEnter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载登陆游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载注册游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载创建角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameWelcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameLeave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载游戏谢幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载服务器列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiType.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台</t>
+  </si>
+  <si>
+    <t>控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos2dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,45 +591,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -595,16 +643,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -615,137 +666,201 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C10 C12:C13 C16:C1048576">
       <formula1>rewardTypek</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>uiTypek</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -774,6 +889,14 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -807,7 +930,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -815,7 +938,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -842,4 +965,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -16,9 +16,11 @@
     <sheet name="uiReward.i" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="rewardType.j" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="uiType.j" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="uiEngine.j" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>
+    <definedName name="uiEnginek">uiEngine.j!$A:$A</definedName>
     <definedName name="uiTypek">uiType.j!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rewardName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +237,41 @@
   </si>
   <si>
     <t>UE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEngine.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,276 +624,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C10 C12:C13 C16:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>rewardTypek</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>uiTypek</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>uiTypek</formula1>
+      <formula1>uiEnginek</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,10 +946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -893,10 +969,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +994,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -922,7 +1006,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -930,7 +1014,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -938,7 +1022,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -946,7 +1030,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -954,7 +1038,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -972,7 +1056,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -983,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -991,7 +1075,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -999,7 +1083,52 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -14,14 +14,16 @@
   <sheets>
     <sheet name="uiReward" sheetId="1" r:id="rId1"/>
     <sheet name="uiReward.i" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="rewardType.j" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="uiType.j" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="uiEngine.j" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="uiTick.j" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="rewardType.j" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="uiScene.j" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="uiEngine.j" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>
     <definedName name="uiEnginek">uiEngine.j!$A:$A</definedName>
-    <definedName name="uiTypek">uiType.j!$A:$A</definedName>
+    <definedName name="uiScenek">uiScene.j!$A:$A</definedName>
+    <definedName name="uiTickk">uiTick.j!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,207 +73,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示界面</t>
+    <t>indexs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载界面</t>
+  </si>
+  <si>
+    <t>int8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台</t>
+  </si>
+  <si>
+    <t>控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos2dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEngine.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶场景</t>
+  </si>
+  <si>
+    <t>置顶场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新场景</t>
+  </si>
+  <si>
+    <t>刷新场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiScene.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出界面场景</t>
+  </si>
+  <si>
+    <t>弹出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏地图场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置后场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关闭界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>indexs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示进入游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountEnter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示登陆游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载界面</t>
-  </si>
-  <si>
-    <t>加载网络界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载游戏欢迎界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载进入游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountEnter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载登陆游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载注册游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载创建角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameWelcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameLeave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载游戏谢幕界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netConnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载服务器列表界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiType.j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制台</t>
-  </si>
-  <si>
-    <t>控制台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocos2dx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiEngine.j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面</t>
-  </si>
-  <si>
-    <t>主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落幕界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiName</t>
+    <t>场景类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶弹出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiTick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiTick.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载启动界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新弹出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameSplash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -636,40 +612,44 @@
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -680,263 +660,125 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>rewardTypek</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>uiTypek</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>uiEnginek</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>uiScenek</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>uiTickk</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -969,18 +811,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +841,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1006,7 +891,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1014,7 +899,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1022,7 +907,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1030,7 +915,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1038,55 +923,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +949,52 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1112,7 +1005,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1120,7 +1013,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1128,7 +1021,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加载界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,9 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加载界面</t>
-  </si>
-  <si>
     <t>int8_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>场景类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,15 +228,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加载启动界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新弹出界面场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gameSplash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameSplash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置后场景</t>
+  </si>
+  <si>
+    <t>置后弹出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载界面</t>
+  </si>
+  <si>
+    <t>卸载界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载界面</t>
+  </si>
+  <si>
+    <t>装载界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面场景</t>
+  </si>
+  <si>
+    <t>装载游戏欢迎界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameWelcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载注册游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载注册游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载登陆游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载登陆游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载进入游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountEnter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载进入游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载服务器列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载服务器列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载角色创建界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载角色创建界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载网络连接界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载网络连接界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameLeave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载开幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭开幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏场景</t>
+  </si>
+  <si>
+    <t>清屏场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏弹出界面场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,21 +724,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -625,25 +750,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -660,19 +785,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
@@ -689,19 +814,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -712,16 +837,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -730,39 +855,397 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +1260,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>uiScenek</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>uiTickk</formula1>
     </dataValidation>
   </dataValidations>
@@ -811,26 +1294,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -862,7 +1345,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -876,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -891,7 +1374,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -899,7 +1382,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -907,7 +1390,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -915,7 +1398,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -923,7 +1406,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -931,10 +1414,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1451,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -968,7 +1459,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -976,7 +1467,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1005,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1013,7 +1504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1021,7 +1512,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,13 +365,32 @@
   </si>
   <si>
     <t>清屏场景</t>
-  </si>
-  <si>
-    <t>清屏场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清屏弹出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出界面场景</t>
+  </si>
+  <si>
+    <t>退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置后退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重绘场景</t>
+  </si>
+  <si>
+    <t>重绘场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +422,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +467,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -740,8 +768,8 @@
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -768,10 +796,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -797,10 +825,10 @@
         <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -826,10 +854,10 @@
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -848,17 +876,17 @@
       <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -866,29 +894,28 @@
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -896,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -908,10 +935,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -919,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -931,169 +955,123 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>56</v>
@@ -1105,18 +1083,18 @@
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
@@ -1125,18 +1103,18 @@
         <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
@@ -1145,18 +1123,18 @@
         <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
@@ -1165,18 +1143,18 @@
         <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -1185,18 +1163,18 @@
         <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
@@ -1205,18 +1183,18 @@
         <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>19</v>
@@ -1225,18 +1203,18 @@
         <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
@@ -1245,9 +1223,110 @@
         <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -1274,7 +1353,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1359,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1382,7 +1461,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1398,7 +1477,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1406,7 +1485,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1414,7 +1493,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -1422,10 +1501,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1471,6 +1558,14 @@
       </c>
       <c r="B3" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t>重绘场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新游戏界面场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1330,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,13 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹出界面场景</t>
-  </si>
-  <si>
-    <t>弹出界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏界面场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>置顶弹出界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiTick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刷新弹出界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gameSplash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +224,6 @@
     <t>置后场景</t>
   </si>
   <si>
-    <t>置后弹出界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卸载界面</t>
   </si>
   <si>
@@ -272,42 +249,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装载注册游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accountRegister</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卸载注册游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装载登陆游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载登陆游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accountLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装载进入游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accountEnter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卸载进入游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装载服务器列表界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,14 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭闭幕界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭开幕界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清屏场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,7 +316,56 @@
     <t>退出界面场景</t>
   </si>
   <si>
-    <t>退出界面场景</t>
+    <t>置顶退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重绘场景</t>
+  </si>
+  <si>
+    <t>重绘场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶游戏界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏场景</t>
+  </si>
+  <si>
+    <t>清屏游戏界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新游戏界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏地图场景</t>
+  </si>
+  <si>
+    <t>置顶游戏地图场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏游戏地图场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新游戏地图场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置后游戏地图场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏退出界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新退出界面场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,23 +373,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>置顶退出界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新退出界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重绘场景</t>
-  </si>
-  <si>
-    <t>重绘场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新游戏界面场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>重绘控制台场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载开幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载闭幕界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载注册帐号界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载注册帐号界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载帐号登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载帐号登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载帐号进入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载帐号进入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置后游戏界面场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏场景</t>
   </si>
 </sst>
 </file>
@@ -756,22 +782,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -782,28 +808,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -817,22 +843,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -840,28 +866,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -869,485 +895,590 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>19</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -1374,7 +1505,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1394,26 +1525,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1568,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1445,7 +1576,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1462,7 +1593,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1474,7 +1605,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1482,7 +1613,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1490,7 +1621,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1498,7 +1629,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1506,7 +1637,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1514,7 +1645,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -1522,7 +1653,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
@@ -1530,7 +1661,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -1545,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1559,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1567,7 +1698,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1575,18 +1706,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1735,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1620,7 +1743,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1628,7 +1751,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -786,7 +786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,33 @@
   </si>
   <si>
     <t>退出游戏场景</t>
+  </si>
+  <si>
+    <t>通知界面</t>
+  </si>
+  <si>
+    <t>连接代理服务器时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器中断开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器中异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectAgentError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -782,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1478,7 +1505,94 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
   <si>
     <t>rewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,18 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装载网络连接界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netConnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载网络连接界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gameLeave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +436,46 @@
   </si>
   <si>
     <t>connectAgentError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectAgentSucess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectAgentTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectAgentException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载连接代理服务器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载连接代理服务器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectAgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载断开代理服务器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载断开代理服务器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnectAgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnectAgent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,21 +837,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
@@ -905,7 +933,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>40</v>
@@ -922,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -940,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -958,10 +986,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -976,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -994,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -1015,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1024,7 +1052,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1033,16 +1061,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -1051,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -1060,7 +1088,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1069,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>47</v>
@@ -1078,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1090,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -1099,7 +1127,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -1108,16 +1136,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1126,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>29</v>
@@ -1135,7 +1163,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -1144,7 +1172,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -1153,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -1163,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>50</v>
@@ -1186,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>48</v>
@@ -1206,7 +1234,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>50</v>
@@ -1215,10 +1243,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>42</v>
@@ -1229,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
@@ -1238,10 +1266,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1270,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
@@ -1290,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>48</v>
@@ -1310,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>50</v>
@@ -1330,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>48</v>
@@ -1350,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>50</v>
@@ -1370,7 +1398,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>48</v>
@@ -1465,35 +1493,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
@@ -1502,18 +1511,18 @@
         <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -1522,77 +1531,150 @@
         <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>35</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>36</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -1727,7 +1809,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1743,7 +1825,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1820,7 +1902,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -435,22 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>connectAgentError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectAgentSucess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectAgentTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectAgentException</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装载连接代理服务器界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,7 +459,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>disconnectAgent</t>
+    <t>inConnectAgentError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inConnectAgentSucess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inConnectAgentTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inDisconnectAgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inConnectAgentException</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,8 +840,8 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1499,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>50</v>
@@ -1511,7 +1511,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1519,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>48</v>
@@ -1531,7 +1531,7 @@
         <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1539,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>50</v>
@@ -1551,7 +1551,7 @@
         <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1559,7 +1559,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -1571,7 +1571,7 @@
         <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1591,7 +1591,7 @@
         <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1611,7 +1611,7 @@
         <v>52</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1631,7 +1631,7 @@
         <v>52</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
         <v>52</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1671,7 +1671,7 @@
         <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/gameTb/client/table/界面系统.xlsx
+++ b/gameTb/client/table/界面系统.xlsx
@@ -840,8 +840,8 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
